--- a/Original_Excel_Files/B720-785.xlsx
+++ b/Original_Excel_Files/B720-785.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31960ED-0EA2-46A8-929F-74F565EC39A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF693686-03B4-498C-BC56-4A88C3DE2BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>B720 .F7 1956</t>
   </si>
@@ -65,6 +65,33 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Fremantle, Anne</t>
+  </si>
+  <si>
+    <t>John, Wippel F. ed. and Allan B. Wolter ed.</t>
+  </si>
+  <si>
+    <t>Leff</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Sirat, Colette</t>
+  </si>
+  <si>
+    <t>Hopkins, Jasper and Richardson, Herbert eds.</t>
+  </si>
+  <si>
+    <t>ed. Davies, Brian and Evans, G. R.</t>
+  </si>
+  <si>
+    <t>Popkins, Richard H. ed.</t>
   </si>
 </sst>
 </file>
@@ -133,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -161,6 +188,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,172 +529,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B7" sqref="B7:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="9"/>
-    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="1" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7">
         <v>1956</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8">
         <v>1956</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9">
         <v>1969</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7">
         <v>1969</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="10">
         <v>1958</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="9">
         <v>1990</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7">
         <v>1990</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
         <v>1998</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8">
         <v>1966</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="7">
         <v>1966</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
     <sortCondition ref="A1:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
